--- a/testing/food_results.xlsx
+++ b/testing/food_results.xlsx
@@ -227,7 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -291,13 +291,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -614,11 +614,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="61.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="56.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="57.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="62.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
